--- a/variables.xlsx
+++ b/variables.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -69,7 +68,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -434,13 +433,13 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
